--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Urquhart/Arthur_Urquhart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Urquhart/Arthur_Urquhart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Urquhart ou Lorrane ou Lorraine ou Torrace ou Torraine Urquhart était un fermier et un naturaliste amateur  néo-zélandais dont la famille est d’origine écossaise, sa date de naissance est inconnue, il est mort le 3 octobre 1916 à Karaka près d’Auckland en Nouvelle-Zélande.
 Fermier à Karaka, il a participé, à partir de 1877, à l’Institut d’Auckland et est, en 1896, membre correspondant de la Société royale de Tasmanie.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bonnet (1945), Bibliographia araneorum, Les frères Doularoude (Toulouse)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’arachnologie   Portail de la Nouvelle-Zélande                   </t>
